--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,19 +531,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N2">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q2">
-        <v>0.301128807815</v>
+        <v>0.08446231313555555</v>
       </c>
       <c r="R2">
-        <v>1.80677284689</v>
+        <v>0.7601608182199999</v>
       </c>
       <c r="S2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="T2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
         <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q3">
-        <v>0.2670479653196667</v>
+        <v>0.1011922111832222</v>
       </c>
       <c r="R3">
-        <v>1.602287791918</v>
+        <v>0.9107299006489999</v>
       </c>
       <c r="S3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="T3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +655,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N4">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q4">
-        <v>0.2770772095373333</v>
+        <v>0.1279014397653333</v>
       </c>
       <c r="R4">
-        <v>1.662463257224</v>
+        <v>1.151112957888</v>
       </c>
       <c r="S4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="T4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H5">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N5">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q5">
-        <v>0.5552286627359998</v>
+        <v>0.08426374452016666</v>
       </c>
       <c r="R5">
-        <v>2.220914650943999</v>
+        <v>0.505582467121</v>
       </c>
       <c r="S5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="T5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H6">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N6">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q6">
-        <v>0.2353073463913333</v>
+        <v>0.1039478232561111</v>
       </c>
       <c r="R6">
-        <v>1.411844078348</v>
+        <v>0.9355304093050001</v>
       </c>
       <c r="S6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="T6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
     </row>
   </sheetData>
